--- a/Entregas/Entregas.xlsx
+++ b/Entregas/Entregas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Fecha</t>
   </si>
@@ -31,6 +31,24 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>Investigacion\Definicion de Perfiles</t>
+  </si>
+  <si>
+    <t>Generacion de un Perfil.docx</t>
+  </si>
+  <si>
+    <t>Investigacion\Dispositivo Electrónico</t>
+  </si>
+  <si>
+    <t>Dispositvo Electronico.doc</t>
+  </si>
+  <si>
+    <t>Investigacion\Marketing\4P5C</t>
+  </si>
+  <si>
+    <t>Informe Marketing.docx</t>
   </si>
 </sst>
 </file>
@@ -54,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -62,13 +80,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -76,6 +116,18 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:D6" totalsRowShown="0">
+  <autoFilter ref="B2:D6"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Fecha"/>
+    <tableColumn id="2" name="Archivos"/>
+    <tableColumn id="3" name="Path"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,16 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -386,14 +437,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="1">
+    <row r="3" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B3" s="2">
         <v>40640</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -401,9 +452,36 @@
       <c r="B4" s="1">
         <v>40647</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
